--- a/sequences/12_retrieval_1.xlsx
+++ b/sequences/12_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1988,6 +1988,30 @@
       <c r="F5" t="s">
         <v>208</v>
       </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2052,6 +2076,30 @@
       <c r="F7" t="s">
         <v>208</v>
       </c>
+      <c r="G7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M7" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2160,6 +2208,30 @@
       <c r="F10" t="s">
         <v>208</v>
       </c>
+      <c r="G10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N10" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2180,6 +2252,30 @@
       <c r="F11" t="s">
         <v>208</v>
       </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" t="s">
+        <v>208</v>
+      </c>
+      <c r="N11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -2376,6 +2472,30 @@
       <c r="F16" t="s">
         <v>208</v>
       </c>
+      <c r="G16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N16" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2528,6 +2648,30 @@
       <c r="F20" t="s">
         <v>208</v>
       </c>
+      <c r="G20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s">
+        <v>208</v>
+      </c>
+      <c r="N20" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2812,6 +2956,30 @@
       <c r="F27" t="s">
         <v>208</v>
       </c>
+      <c r="G27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2832,6 +3000,30 @@
       <c r="F28" t="s">
         <v>208</v>
       </c>
+      <c r="G28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -2896,6 +3088,30 @@
       <c r="F30" t="s">
         <v>208</v>
       </c>
+      <c r="G30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3004,6 +3220,30 @@
       <c r="F33" t="s">
         <v>208</v>
       </c>
+      <c r="G33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" t="s">
+        <v>208</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" t="s">
+        <v>208</v>
+      </c>
+      <c r="N33" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3024,6 +3264,30 @@
       <c r="F34" t="s">
         <v>208</v>
       </c>
+      <c r="G34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3176,6 +3440,30 @@
       <c r="F38" t="s">
         <v>208</v>
       </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
@@ -3196,6 +3484,30 @@
       <c r="F39" t="s">
         <v>208</v>
       </c>
+      <c r="G39" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" t="s">
+        <v>208</v>
+      </c>
+      <c r="L39" t="s">
+        <v>208</v>
+      </c>
+      <c r="M39" t="s">
+        <v>208</v>
+      </c>
+      <c r="N39" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3216,6 +3528,30 @@
       <c r="F40" t="s">
         <v>208</v>
       </c>
+      <c r="G40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40" t="s">
+        <v>208</v>
+      </c>
+      <c r="K40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" t="s">
+        <v>208</v>
+      </c>
+      <c r="M40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3324,6 +3660,30 @@
       <c r="F43" t="s">
         <v>208</v>
       </c>
+      <c r="G43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" t="s">
+        <v>208</v>
+      </c>
+      <c r="I43" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" t="s">
+        <v>208</v>
+      </c>
+      <c r="M43" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3476,6 +3836,30 @@
       <c r="F47" t="s">
         <v>208</v>
       </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" t="s">
+        <v>208</v>
+      </c>
+      <c r="K47" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" t="s">
+        <v>208</v>
+      </c>
+      <c r="M47" t="s">
+        <v>208</v>
+      </c>
+      <c r="N47" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3540,6 +3924,30 @@
       <c r="F49" t="s">
         <v>208</v>
       </c>
+      <c r="G49" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" t="s">
+        <v>208</v>
+      </c>
+      <c r="I49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" t="s">
+        <v>208</v>
+      </c>
+      <c r="K49" t="s">
+        <v>208</v>
+      </c>
+      <c r="L49" t="s">
+        <v>208</v>
+      </c>
+      <c r="M49" t="s">
+        <v>208</v>
+      </c>
+      <c r="N49" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3604,6 +4012,30 @@
       <c r="F51" t="s">
         <v>208</v>
       </c>
+      <c r="G51" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" t="s">
+        <v>208</v>
+      </c>
+      <c r="J51" t="s">
+        <v>208</v>
+      </c>
+      <c r="K51" t="s">
+        <v>208</v>
+      </c>
+      <c r="L51" t="s">
+        <v>208</v>
+      </c>
+      <c r="M51" t="s">
+        <v>208</v>
+      </c>
+      <c r="N51" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3712,6 +4144,30 @@
       <c r="F54" t="s">
         <v>208</v>
       </c>
+      <c r="G54" t="s">
+        <v>208</v>
+      </c>
+      <c r="H54" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" t="s">
+        <v>208</v>
+      </c>
+      <c r="J54" t="s">
+        <v>208</v>
+      </c>
+      <c r="K54" t="s">
+        <v>208</v>
+      </c>
+      <c r="L54" t="s">
+        <v>208</v>
+      </c>
+      <c r="M54" t="s">
+        <v>208</v>
+      </c>
+      <c r="N54" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -3732,6 +4188,30 @@
       <c r="F55" t="s">
         <v>208</v>
       </c>
+      <c r="G55" t="s">
+        <v>208</v>
+      </c>
+      <c r="H55" t="s">
+        <v>208</v>
+      </c>
+      <c r="I55" t="s">
+        <v>208</v>
+      </c>
+      <c r="J55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K55" t="s">
+        <v>208</v>
+      </c>
+      <c r="L55" t="s">
+        <v>208</v>
+      </c>
+      <c r="M55" t="s">
+        <v>208</v>
+      </c>
+      <c r="N55" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3884,6 +4364,30 @@
       <c r="F59" t="s">
         <v>208</v>
       </c>
+      <c r="G59" t="s">
+        <v>208</v>
+      </c>
+      <c r="H59" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" t="s">
+        <v>208</v>
+      </c>
+      <c r="J59" t="s">
+        <v>208</v>
+      </c>
+      <c r="K59" t="s">
+        <v>208</v>
+      </c>
+      <c r="L59" t="s">
+        <v>208</v>
+      </c>
+      <c r="M59" t="s">
+        <v>208</v>
+      </c>
+      <c r="N59" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -3992,6 +4496,30 @@
       <c r="F62" t="s">
         <v>208</v>
       </c>
+      <c r="G62" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" t="s">
+        <v>208</v>
+      </c>
+      <c r="I62" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62" t="s">
+        <v>208</v>
+      </c>
+      <c r="K62" t="s">
+        <v>208</v>
+      </c>
+      <c r="L62" t="s">
+        <v>208</v>
+      </c>
+      <c r="M62" t="s">
+        <v>208</v>
+      </c>
+      <c r="N62" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4056,6 +4584,30 @@
       <c r="F64" t="s">
         <v>208</v>
       </c>
+      <c r="G64" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" t="s">
+        <v>208</v>
+      </c>
+      <c r="I64" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" t="s">
+        <v>208</v>
+      </c>
+      <c r="K64" t="s">
+        <v>208</v>
+      </c>
+      <c r="L64" t="s">
+        <v>208</v>
+      </c>
+      <c r="M64" t="s">
+        <v>208</v>
+      </c>
+      <c r="N64" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4076,6 +4628,30 @@
       <c r="F65" t="s">
         <v>208</v>
       </c>
+      <c r="G65" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" t="s">
+        <v>208</v>
+      </c>
+      <c r="I65" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" t="s">
+        <v>208</v>
+      </c>
+      <c r="K65" t="s">
+        <v>208</v>
+      </c>
+      <c r="L65" t="s">
+        <v>208</v>
+      </c>
+      <c r="M65" t="s">
+        <v>208</v>
+      </c>
+      <c r="N65" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4272,6 +4848,30 @@
       <c r="F70" t="s">
         <v>208</v>
       </c>
+      <c r="G70" t="s">
+        <v>208</v>
+      </c>
+      <c r="H70" t="s">
+        <v>208</v>
+      </c>
+      <c r="I70" t="s">
+        <v>208</v>
+      </c>
+      <c r="J70" t="s">
+        <v>208</v>
+      </c>
+      <c r="K70" t="s">
+        <v>208</v>
+      </c>
+      <c r="L70" t="s">
+        <v>208</v>
+      </c>
+      <c r="M70" t="s">
+        <v>208</v>
+      </c>
+      <c r="N70" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4512,6 +5112,30 @@
       <c r="F76" t="s">
         <v>208</v>
       </c>
+      <c r="G76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" t="s">
+        <v>208</v>
+      </c>
+      <c r="I76" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76" t="s">
+        <v>208</v>
+      </c>
+      <c r="K76" t="s">
+        <v>208</v>
+      </c>
+      <c r="L76" t="s">
+        <v>208</v>
+      </c>
+      <c r="M76" t="s">
+        <v>208</v>
+      </c>
+      <c r="N76" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4576,6 +5200,30 @@
       <c r="F78" t="s">
         <v>208</v>
       </c>
+      <c r="G78" t="s">
+        <v>208</v>
+      </c>
+      <c r="H78" t="s">
+        <v>208</v>
+      </c>
+      <c r="I78" t="s">
+        <v>208</v>
+      </c>
+      <c r="J78" t="s">
+        <v>208</v>
+      </c>
+      <c r="K78" t="s">
+        <v>208</v>
+      </c>
+      <c r="L78" t="s">
+        <v>208</v>
+      </c>
+      <c r="M78" t="s">
+        <v>208</v>
+      </c>
+      <c r="N78" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4640,6 +5288,30 @@
       <c r="F80" t="s">
         <v>208</v>
       </c>
+      <c r="G80" t="s">
+        <v>208</v>
+      </c>
+      <c r="H80" t="s">
+        <v>208</v>
+      </c>
+      <c r="I80" t="s">
+        <v>208</v>
+      </c>
+      <c r="J80" t="s">
+        <v>208</v>
+      </c>
+      <c r="K80" t="s">
+        <v>208</v>
+      </c>
+      <c r="L80" t="s">
+        <v>208</v>
+      </c>
+      <c r="M80" t="s">
+        <v>208</v>
+      </c>
+      <c r="N80" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4792,6 +5464,30 @@
       <c r="F84" t="s">
         <v>208</v>
       </c>
+      <c r="G84" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" t="s">
+        <v>208</v>
+      </c>
+      <c r="I84" t="s">
+        <v>208</v>
+      </c>
+      <c r="J84" t="s">
+        <v>208</v>
+      </c>
+      <c r="K84" t="s">
+        <v>208</v>
+      </c>
+      <c r="L84" t="s">
+        <v>208</v>
+      </c>
+      <c r="M84" t="s">
+        <v>208</v>
+      </c>
+      <c r="N84" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4856,6 +5552,30 @@
       <c r="F86" t="s">
         <v>208</v>
       </c>
+      <c r="G86" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" t="s">
+        <v>208</v>
+      </c>
+      <c r="I86" t="s">
+        <v>208</v>
+      </c>
+      <c r="J86" t="s">
+        <v>208</v>
+      </c>
+      <c r="K86" t="s">
+        <v>208</v>
+      </c>
+      <c r="L86" t="s">
+        <v>208</v>
+      </c>
+      <c r="M86" t="s">
+        <v>208</v>
+      </c>
+      <c r="N86" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -4920,6 +5640,30 @@
       <c r="F88" t="s">
         <v>208</v>
       </c>
+      <c r="G88" t="s">
+        <v>208</v>
+      </c>
+      <c r="H88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I88" t="s">
+        <v>208</v>
+      </c>
+      <c r="J88" t="s">
+        <v>208</v>
+      </c>
+      <c r="K88" t="s">
+        <v>208</v>
+      </c>
+      <c r="L88" t="s">
+        <v>208</v>
+      </c>
+      <c r="M88" t="s">
+        <v>208</v>
+      </c>
+      <c r="N88" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -4940,6 +5684,30 @@
       <c r="F89" t="s">
         <v>208</v>
       </c>
+      <c r="G89" t="s">
+        <v>208</v>
+      </c>
+      <c r="H89" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" t="s">
+        <v>208</v>
+      </c>
+      <c r="J89" t="s">
+        <v>208</v>
+      </c>
+      <c r="K89" t="s">
+        <v>208</v>
+      </c>
+      <c r="L89" t="s">
+        <v>208</v>
+      </c>
+      <c r="M89" t="s">
+        <v>208</v>
+      </c>
+      <c r="N89" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
@@ -5180,6 +5948,30 @@
       <c r="F95" t="s">
         <v>208</v>
       </c>
+      <c r="G95" t="s">
+        <v>208</v>
+      </c>
+      <c r="H95" t="s">
+        <v>208</v>
+      </c>
+      <c r="I95" t="s">
+        <v>208</v>
+      </c>
+      <c r="J95" t="s">
+        <v>208</v>
+      </c>
+      <c r="K95" t="s">
+        <v>208</v>
+      </c>
+      <c r="L95" t="s">
+        <v>208</v>
+      </c>
+      <c r="M95" t="s">
+        <v>208</v>
+      </c>
+      <c r="N95" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5420,6 +6212,30 @@
       <c r="F101" t="s">
         <v>208</v>
       </c>
+      <c r="G101" t="s">
+        <v>208</v>
+      </c>
+      <c r="H101" t="s">
+        <v>208</v>
+      </c>
+      <c r="I101" t="s">
+        <v>208</v>
+      </c>
+      <c r="J101" t="s">
+        <v>208</v>
+      </c>
+      <c r="K101" t="s">
+        <v>208</v>
+      </c>
+      <c r="L101" t="s">
+        <v>208</v>
+      </c>
+      <c r="M101" t="s">
+        <v>208</v>
+      </c>
+      <c r="N101" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5704,6 +6520,30 @@
       <c r="F108" t="s">
         <v>208</v>
       </c>
+      <c r="G108" t="s">
+        <v>208</v>
+      </c>
+      <c r="H108" t="s">
+        <v>208</v>
+      </c>
+      <c r="I108" t="s">
+        <v>208</v>
+      </c>
+      <c r="J108" t="s">
+        <v>208</v>
+      </c>
+      <c r="K108" t="s">
+        <v>208</v>
+      </c>
+      <c r="L108" t="s">
+        <v>208</v>
+      </c>
+      <c r="M108" t="s">
+        <v>208</v>
+      </c>
+      <c r="N108" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5724,6 +6564,30 @@
       <c r="F109" t="s">
         <v>208</v>
       </c>
+      <c r="G109" t="s">
+        <v>208</v>
+      </c>
+      <c r="H109" t="s">
+        <v>208</v>
+      </c>
+      <c r="I109" t="s">
+        <v>208</v>
+      </c>
+      <c r="J109" t="s">
+        <v>208</v>
+      </c>
+      <c r="K109" t="s">
+        <v>208</v>
+      </c>
+      <c r="L109" t="s">
+        <v>208</v>
+      </c>
+      <c r="M109" t="s">
+        <v>208</v>
+      </c>
+      <c r="N109" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5744,6 +6608,30 @@
       <c r="F110" t="s">
         <v>208</v>
       </c>
+      <c r="G110" t="s">
+        <v>208</v>
+      </c>
+      <c r="H110" t="s">
+        <v>208</v>
+      </c>
+      <c r="I110" t="s">
+        <v>208</v>
+      </c>
+      <c r="J110" t="s">
+        <v>208</v>
+      </c>
+      <c r="K110" t="s">
+        <v>208</v>
+      </c>
+      <c r="L110" t="s">
+        <v>208</v>
+      </c>
+      <c r="M110" t="s">
+        <v>208</v>
+      </c>
+      <c r="N110" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5808,6 +6696,30 @@
       <c r="F112" t="s">
         <v>208</v>
       </c>
+      <c r="G112" t="s">
+        <v>208</v>
+      </c>
+      <c r="H112" t="s">
+        <v>208</v>
+      </c>
+      <c r="I112" t="s">
+        <v>208</v>
+      </c>
+      <c r="J112" t="s">
+        <v>208</v>
+      </c>
+      <c r="K112" t="s">
+        <v>208</v>
+      </c>
+      <c r="L112" t="s">
+        <v>208</v>
+      </c>
+      <c r="M112" t="s">
+        <v>208</v>
+      </c>
+      <c r="N112" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5828,6 +6740,30 @@
       <c r="F113" t="s">
         <v>208</v>
       </c>
+      <c r="G113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H113" t="s">
+        <v>208</v>
+      </c>
+      <c r="I113" t="s">
+        <v>208</v>
+      </c>
+      <c r="J113" t="s">
+        <v>208</v>
+      </c>
+      <c r="K113" t="s">
+        <v>208</v>
+      </c>
+      <c r="L113" t="s">
+        <v>208</v>
+      </c>
+      <c r="M113" t="s">
+        <v>208</v>
+      </c>
+      <c r="N113" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5980,6 +6916,30 @@
       <c r="F117" t="s">
         <v>208</v>
       </c>
+      <c r="G117" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" t="s">
+        <v>208</v>
+      </c>
+      <c r="I117" t="s">
+        <v>208</v>
+      </c>
+      <c r="J117" t="s">
+        <v>208</v>
+      </c>
+      <c r="K117" t="s">
+        <v>208</v>
+      </c>
+      <c r="L117" t="s">
+        <v>208</v>
+      </c>
+      <c r="M117" t="s">
+        <v>208</v>
+      </c>
+      <c r="N117" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6132,6 +7092,30 @@
       <c r="F121" t="s">
         <v>208</v>
       </c>
+      <c r="G121" t="s">
+        <v>208</v>
+      </c>
+      <c r="H121" t="s">
+        <v>208</v>
+      </c>
+      <c r="I121" t="s">
+        <v>208</v>
+      </c>
+      <c r="J121" t="s">
+        <v>208</v>
+      </c>
+      <c r="K121" t="s">
+        <v>208</v>
+      </c>
+      <c r="L121" t="s">
+        <v>208</v>
+      </c>
+      <c r="M121" t="s">
+        <v>208</v>
+      </c>
+      <c r="N121" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6152,6 +7136,30 @@
       <c r="F122" t="s">
         <v>208</v>
       </c>
+      <c r="G122" t="s">
+        <v>208</v>
+      </c>
+      <c r="H122" t="s">
+        <v>208</v>
+      </c>
+      <c r="I122" t="s">
+        <v>208</v>
+      </c>
+      <c r="J122" t="s">
+        <v>208</v>
+      </c>
+      <c r="K122" t="s">
+        <v>208</v>
+      </c>
+      <c r="L122" t="s">
+        <v>208</v>
+      </c>
+      <c r="M122" t="s">
+        <v>208</v>
+      </c>
+      <c r="N122" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6304,6 +7312,30 @@
       <c r="F126" t="s">
         <v>208</v>
       </c>
+      <c r="G126" t="s">
+        <v>208</v>
+      </c>
+      <c r="H126" t="s">
+        <v>208</v>
+      </c>
+      <c r="I126" t="s">
+        <v>208</v>
+      </c>
+      <c r="J126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L126" t="s">
+        <v>208</v>
+      </c>
+      <c r="M126" t="s">
+        <v>208</v>
+      </c>
+      <c r="N126" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6500,6 +7532,30 @@
       <c r="F131" t="s">
         <v>208</v>
       </c>
+      <c r="G131" t="s">
+        <v>208</v>
+      </c>
+      <c r="H131" t="s">
+        <v>208</v>
+      </c>
+      <c r="I131" t="s">
+        <v>208</v>
+      </c>
+      <c r="J131" t="s">
+        <v>208</v>
+      </c>
+      <c r="K131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L131" t="s">
+        <v>208</v>
+      </c>
+      <c r="M131" t="s">
+        <v>208</v>
+      </c>
+      <c r="N131" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6564,6 +7620,30 @@
       <c r="F133" t="s">
         <v>208</v>
       </c>
+      <c r="G133" t="s">
+        <v>208</v>
+      </c>
+      <c r="H133" t="s">
+        <v>208</v>
+      </c>
+      <c r="I133" t="s">
+        <v>208</v>
+      </c>
+      <c r="J133" t="s">
+        <v>208</v>
+      </c>
+      <c r="K133" t="s">
+        <v>208</v>
+      </c>
+      <c r="L133" t="s">
+        <v>208</v>
+      </c>
+      <c r="M133" t="s">
+        <v>208</v>
+      </c>
+      <c r="N133" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6804,6 +7884,30 @@
       <c r="F139" t="s">
         <v>208</v>
       </c>
+      <c r="G139" t="s">
+        <v>208</v>
+      </c>
+      <c r="H139" t="s">
+        <v>208</v>
+      </c>
+      <c r="I139" t="s">
+        <v>208</v>
+      </c>
+      <c r="J139" t="s">
+        <v>208</v>
+      </c>
+      <c r="K139" t="s">
+        <v>208</v>
+      </c>
+      <c r="L139" t="s">
+        <v>208</v>
+      </c>
+      <c r="M139" t="s">
+        <v>208</v>
+      </c>
+      <c r="N139" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -7000,6 +8104,30 @@
       <c r="F144" t="s">
         <v>208</v>
       </c>
+      <c r="G144" t="s">
+        <v>208</v>
+      </c>
+      <c r="H144" t="s">
+        <v>208</v>
+      </c>
+      <c r="I144" t="s">
+        <v>208</v>
+      </c>
+      <c r="J144" t="s">
+        <v>208</v>
+      </c>
+      <c r="K144" t="s">
+        <v>208</v>
+      </c>
+      <c r="L144" t="s">
+        <v>208</v>
+      </c>
+      <c r="M144" t="s">
+        <v>208</v>
+      </c>
+      <c r="N144" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7108,6 +8236,30 @@
       <c r="F147" t="s">
         <v>208</v>
       </c>
+      <c r="G147" t="s">
+        <v>208</v>
+      </c>
+      <c r="H147" t="s">
+        <v>208</v>
+      </c>
+      <c r="I147" t="s">
+        <v>208</v>
+      </c>
+      <c r="J147" t="s">
+        <v>208</v>
+      </c>
+      <c r="K147" t="s">
+        <v>208</v>
+      </c>
+      <c r="L147" t="s">
+        <v>208</v>
+      </c>
+      <c r="M147" t="s">
+        <v>208</v>
+      </c>
+      <c r="N147" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
@@ -7172,6 +8324,30 @@
       <c r="F149" t="s">
         <v>208</v>
       </c>
+      <c r="G149" t="s">
+        <v>208</v>
+      </c>
+      <c r="H149" t="s">
+        <v>208</v>
+      </c>
+      <c r="I149" t="s">
+        <v>208</v>
+      </c>
+      <c r="J149" t="s">
+        <v>208</v>
+      </c>
+      <c r="K149" t="s">
+        <v>208</v>
+      </c>
+      <c r="L149" t="s">
+        <v>208</v>
+      </c>
+      <c r="M149" t="s">
+        <v>208</v>
+      </c>
+      <c r="N149" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
@@ -7412,6 +8588,30 @@
       <c r="F155" t="s">
         <v>208</v>
       </c>
+      <c r="G155" t="s">
+        <v>208</v>
+      </c>
+      <c r="H155" t="s">
+        <v>208</v>
+      </c>
+      <c r="I155" t="s">
+        <v>208</v>
+      </c>
+      <c r="J155" t="s">
+        <v>208</v>
+      </c>
+      <c r="K155" t="s">
+        <v>208</v>
+      </c>
+      <c r="L155" t="s">
+        <v>208</v>
+      </c>
+      <c r="M155" t="s">
+        <v>208</v>
+      </c>
+      <c r="N155" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7652,6 +8852,30 @@
       <c r="F161" t="s">
         <v>208</v>
       </c>
+      <c r="G161" t="s">
+        <v>208</v>
+      </c>
+      <c r="H161" t="s">
+        <v>208</v>
+      </c>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+      <c r="J161" t="s">
+        <v>208</v>
+      </c>
+      <c r="K161" t="s">
+        <v>208</v>
+      </c>
+      <c r="L161" t="s">
+        <v>208</v>
+      </c>
+      <c r="M161" t="s">
+        <v>208</v>
+      </c>
+      <c r="N161" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
@@ -7672,6 +8896,30 @@
       <c r="F162" t="s">
         <v>208</v>
       </c>
+      <c r="G162" t="s">
+        <v>208</v>
+      </c>
+      <c r="H162" t="s">
+        <v>208</v>
+      </c>
+      <c r="I162" t="s">
+        <v>208</v>
+      </c>
+      <c r="J162" t="s">
+        <v>208</v>
+      </c>
+      <c r="K162" t="s">
+        <v>208</v>
+      </c>
+      <c r="L162" t="s">
+        <v>208</v>
+      </c>
+      <c r="M162" t="s">
+        <v>208</v>
+      </c>
+      <c r="N162" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7692,6 +8940,30 @@
       <c r="F163" t="s">
         <v>208</v>
       </c>
+      <c r="G163" t="s">
+        <v>208</v>
+      </c>
+      <c r="H163" t="s">
+        <v>208</v>
+      </c>
+      <c r="I163" t="s">
+        <v>208</v>
+      </c>
+      <c r="J163" t="s">
+        <v>208</v>
+      </c>
+      <c r="K163" t="s">
+        <v>208</v>
+      </c>
+      <c r="L163" t="s">
+        <v>208</v>
+      </c>
+      <c r="M163" t="s">
+        <v>208</v>
+      </c>
+      <c r="N163" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7932,6 +9204,30 @@
       <c r="F169" t="s">
         <v>208</v>
       </c>
+      <c r="G169" t="s">
+        <v>208</v>
+      </c>
+      <c r="H169" t="s">
+        <v>208</v>
+      </c>
+      <c r="I169" t="s">
+        <v>208</v>
+      </c>
+      <c r="J169" t="s">
+        <v>208</v>
+      </c>
+      <c r="K169" t="s">
+        <v>208</v>
+      </c>
+      <c r="L169" t="s">
+        <v>208</v>
+      </c>
+      <c r="M169" t="s">
+        <v>208</v>
+      </c>
+      <c r="N169" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -7952,6 +9248,30 @@
       <c r="F170" t="s">
         <v>208</v>
       </c>
+      <c r="G170" t="s">
+        <v>208</v>
+      </c>
+      <c r="H170" t="s">
+        <v>208</v>
+      </c>
+      <c r="I170" t="s">
+        <v>208</v>
+      </c>
+      <c r="J170" t="s">
+        <v>208</v>
+      </c>
+      <c r="K170" t="s">
+        <v>208</v>
+      </c>
+      <c r="L170" t="s">
+        <v>208</v>
+      </c>
+      <c r="M170" t="s">
+        <v>208</v>
+      </c>
+      <c r="N170" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -8236,6 +9556,30 @@
       <c r="F177" t="s">
         <v>208</v>
       </c>
+      <c r="G177" t="s">
+        <v>208</v>
+      </c>
+      <c r="H177" t="s">
+        <v>208</v>
+      </c>
+      <c r="I177" t="s">
+        <v>208</v>
+      </c>
+      <c r="J177" t="s">
+        <v>208</v>
+      </c>
+      <c r="K177" t="s">
+        <v>208</v>
+      </c>
+      <c r="L177" t="s">
+        <v>208</v>
+      </c>
+      <c r="M177" t="s">
+        <v>208</v>
+      </c>
+      <c r="N177" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8300,6 +9644,30 @@
       <c r="F179" t="s">
         <v>208</v>
       </c>
+      <c r="G179" t="s">
+        <v>208</v>
+      </c>
+      <c r="H179" t="s">
+        <v>208</v>
+      </c>
+      <c r="I179" t="s">
+        <v>208</v>
+      </c>
+      <c r="J179" t="s">
+        <v>208</v>
+      </c>
+      <c r="K179" t="s">
+        <v>208</v>
+      </c>
+      <c r="L179" t="s">
+        <v>208</v>
+      </c>
+      <c r="M179" t="s">
+        <v>208</v>
+      </c>
+      <c r="N179" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8320,6 +9688,30 @@
       <c r="F180" t="s">
         <v>208</v>
       </c>
+      <c r="G180" t="s">
+        <v>208</v>
+      </c>
+      <c r="H180" t="s">
+        <v>208</v>
+      </c>
+      <c r="I180" t="s">
+        <v>208</v>
+      </c>
+      <c r="J180" t="s">
+        <v>208</v>
+      </c>
+      <c r="K180" t="s">
+        <v>208</v>
+      </c>
+      <c r="L180" t="s">
+        <v>208</v>
+      </c>
+      <c r="M180" t="s">
+        <v>208</v>
+      </c>
+      <c r="N180" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8472,6 +9864,30 @@
       <c r="F184" t="s">
         <v>208</v>
       </c>
+      <c r="G184" t="s">
+        <v>208</v>
+      </c>
+      <c r="H184" t="s">
+        <v>208</v>
+      </c>
+      <c r="I184" t="s">
+        <v>208</v>
+      </c>
+      <c r="J184" t="s">
+        <v>208</v>
+      </c>
+      <c r="K184" t="s">
+        <v>208</v>
+      </c>
+      <c r="L184" t="s">
+        <v>208</v>
+      </c>
+      <c r="M184" t="s">
+        <v>208</v>
+      </c>
+      <c r="N184" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8492,6 +9908,30 @@
       <c r="F185" t="s">
         <v>208</v>
       </c>
+      <c r="G185" t="s">
+        <v>208</v>
+      </c>
+      <c r="H185" t="s">
+        <v>208</v>
+      </c>
+      <c r="I185" t="s">
+        <v>208</v>
+      </c>
+      <c r="J185" t="s">
+        <v>208</v>
+      </c>
+      <c r="K185" t="s">
+        <v>208</v>
+      </c>
+      <c r="L185" t="s">
+        <v>208</v>
+      </c>
+      <c r="M185" t="s">
+        <v>208</v>
+      </c>
+      <c r="N185" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8512,6 +9952,30 @@
       <c r="F186" t="s">
         <v>208</v>
       </c>
+      <c r="G186" t="s">
+        <v>208</v>
+      </c>
+      <c r="H186" t="s">
+        <v>208</v>
+      </c>
+      <c r="I186" t="s">
+        <v>208</v>
+      </c>
+      <c r="J186" t="s">
+        <v>208</v>
+      </c>
+      <c r="K186" t="s">
+        <v>208</v>
+      </c>
+      <c r="L186" t="s">
+        <v>208</v>
+      </c>
+      <c r="M186" t="s">
+        <v>208</v>
+      </c>
+      <c r="N186" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8576,6 +10040,30 @@
       <c r="F188" t="s">
         <v>208</v>
       </c>
+      <c r="G188" t="s">
+        <v>208</v>
+      </c>
+      <c r="H188" t="s">
+        <v>208</v>
+      </c>
+      <c r="I188" t="s">
+        <v>208</v>
+      </c>
+      <c r="J188" t="s">
+        <v>208</v>
+      </c>
+      <c r="K188" t="s">
+        <v>208</v>
+      </c>
+      <c r="L188" t="s">
+        <v>208</v>
+      </c>
+      <c r="M188" t="s">
+        <v>208</v>
+      </c>
+      <c r="N188" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8640,6 +10128,30 @@
       <c r="F190" t="s">
         <v>208</v>
       </c>
+      <c r="G190" t="s">
+        <v>208</v>
+      </c>
+      <c r="H190" t="s">
+        <v>208</v>
+      </c>
+      <c r="I190" t="s">
+        <v>208</v>
+      </c>
+      <c r="J190" t="s">
+        <v>208</v>
+      </c>
+      <c r="K190" t="s">
+        <v>208</v>
+      </c>
+      <c r="L190" t="s">
+        <v>208</v>
+      </c>
+      <c r="M190" t="s">
+        <v>208</v>
+      </c>
+      <c r="N190" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8729,7 +10241,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>208</v>
+      </c>
+      <c r="G193" t="s">
+        <v>208</v>
+      </c>
+      <c r="H193" t="s">
+        <v>208</v>
+      </c>
+      <c r="I193" t="s">
+        <v>208</v>
+      </c>
+      <c r="J193" t="s">
+        <v>208</v>
+      </c>
+      <c r="K193" t="s">
+        <v>208</v>
+      </c>
+      <c r="L193" t="s">
+        <v>208</v>
+      </c>
+      <c r="M193" t="s">
+        <v>208</v>
+      </c>
+      <c r="N193" t="s">
         <v>208</v>
       </c>
     </row>

--- a/sequences/12_retrieval_1.xlsx
+++ b/sequences/12_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>stellen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
     <t>ändern</t>
   </si>
   <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>währen</t>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>heben</t>
   </si>
   <si>
     <t>streifen</t>
   </si>
   <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>hauen</t>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>laufen</t>
   </si>
   <si>
     <t>zielen</t>
   </si>
   <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>kümmern</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>sorgen</t>
+    <t>mühen</t>
   </si>
   <si>
     <t>drehen</t>
   </si>
   <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>schlampen</t>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
   </si>
   <si>
     <t>face/face022.jpg</t>
